--- a/SorteioGrupos/documentos/OrdensServico.xlsx
+++ b/SorteioGrupos/documentos/OrdensServico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARQUIVOS\SENAI\Planos_Ensino\2020_2_Semestre\ProjetoIntegrador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARQUIVOS\SENAI\Planos_Ensino\2020_2_Semestre\ProjetoIntegrador1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A829D95-A306-4A26-BD89-F7ADF4664658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFCFCE0-E77E-4B50-A222-7E81454F2BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A2EFEAD8-89AC-4165-9D5E-89350841DA2B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="35">
   <si>
     <t>Especialidade</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>Rua Luiza Bueno, 123</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Feito</t>
+  </si>
+  <si>
+    <t>Data Agendamento</t>
   </si>
 </sst>
 </file>
@@ -602,7 +611,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E35660-47F2-415B-B371-9A876C5CB1D5}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -612,7 +623,7 @@
     <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
@@ -730,8 +741,12 @@
       <c r="F11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -758,8 +773,12 @@
       <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="G12" s="4">
+        <v>43852</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -785,8 +804,12 @@
       <c r="F13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="G13" s="4">
+        <v>43871</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -811,8 +834,12 @@
       <c r="F14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="G14" s="4">
+        <v>43890</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -915,7 +942,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G11" sqref="G11:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,8 +1071,12 @@
       <c r="F11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1072,8 +1103,12 @@
       <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="G12" s="4">
+        <v>43852</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -1099,8 +1134,12 @@
       <c r="F13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="G13" s="4">
+        <v>43871</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -1125,8 +1164,12 @@
       <c r="F14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="G14" s="4">
+        <v>43890</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1229,7 +1272,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G11" sqref="G11:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,8 +1401,12 @@
       <c r="F11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1386,8 +1433,12 @@
       <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="G12" s="4">
+        <v>43852</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -1413,8 +1464,12 @@
       <c r="F13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="G13" s="4">
+        <v>43871</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -1439,8 +1494,12 @@
       <c r="F14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="G14" s="4">
+        <v>43890</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
